--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail1 Features.xlsx
@@ -3152,7 +3152,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.59202641021592</v>
+        <v>1.528050340309365</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.690586992251489</v>
@@ -3241,7 +3241,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.576300032118351</v>
+        <v>1.51358700422233</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.454607002385421</v>
@@ -3330,7 +3330,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.58790193859125</v>
+        <v>1.524237495423453</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.929289230503784</v>
@@ -3419,7 +3419,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.591484573298588</v>
+        <v>1.53384641765293</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.978800729430042</v>
@@ -3508,7 +3508,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.576983308944186</v>
+        <v>1.521383108433588</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.065334118183161</v>
@@ -3597,7 +3597,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.562893769775355</v>
+        <v>1.509498086582049</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.150849592446452</v>
@@ -3686,7 +3686,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.558194656731022</v>
+        <v>1.507018585711524</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.915770274943579</v>
@@ -3775,7 +3775,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.558307574265585</v>
+        <v>1.513471453262995</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.2472890258191</v>
@@ -3864,7 +3864,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.551746979599193</v>
+        <v>1.503680819779927</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.100558848433039</v>
@@ -3953,7 +3953,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.548005460201535</v>
+        <v>1.496728395129487</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.26171520201297</v>
@@ -4042,7 +4042,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.534356697807533</v>
+        <v>1.490938066035498</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.389201886120647</v>
@@ -4131,7 +4131,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.500531548730723</v>
+        <v>1.432993812550609</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.855613769503373</v>
@@ -4220,7 +4220,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.472002055969975</v>
+        <v>1.402547017649671</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.904978510497605</v>
@@ -4309,7 +4309,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.466597461684671</v>
+        <v>1.404043372727436</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.903024993240296</v>
@@ -4398,7 +4398,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.465337988984779</v>
+        <v>1.400507780950906</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.930568333899116</v>
@@ -4487,7 +4487,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.472081391909236</v>
+        <v>1.40333490845167</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.936411813791027</v>
@@ -4576,7 +4576,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.483721551968613</v>
+        <v>1.412716316586346</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.942809366751533</v>
@@ -4665,7 +4665,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.480461554200255</v>
+        <v>1.409705024458353</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.945037104572179</v>
@@ -4754,7 +4754,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.475658816561817</v>
+        <v>1.404318634514589</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.937238725641133</v>
@@ -4843,7 +4843,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.468280471906114</v>
+        <v>1.397986601397696</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.970200986218232</v>
@@ -4932,7 +4932,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.472270577864532</v>
+        <v>1.398369884575412</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.978705712008304</v>
@@ -5021,7 +5021,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.451227175029243</v>
+        <v>1.382193481359417</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.999489713020791</v>
@@ -5110,7 +5110,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.449534838531764</v>
+        <v>1.380348238027649</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.969279120720689</v>
@@ -5199,7 +5199,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.452550035973026</v>
+        <v>1.385319856485847</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.00155266157624</v>
@@ -5288,7 +5288,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.455832092492498</v>
+        <v>1.38863326182292</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.001304453093599</v>
@@ -5377,7 +5377,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.459059769200986</v>
+        <v>1.389517468417315</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.980895512005242</v>
@@ -5466,7 +5466,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.475529647757895</v>
+        <v>1.41799555657524</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.137527624180358</v>
@@ -5555,7 +5555,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.505167177182924</v>
+        <v>1.44897941594192</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.348667837333227</v>
@@ -5644,7 +5644,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.508937681959749</v>
+        <v>1.452338638048672</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.371812905028394</v>
@@ -5733,7 +5733,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.515701155399075</v>
+        <v>1.459861365563285</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.348780468160675</v>
@@ -5822,7 +5822,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.509257639909448</v>
+        <v>1.458191833206898</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.388429338556577</v>
@@ -5911,7 +5911,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.506253840348958</v>
+        <v>1.457442772602196</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.443219448424313</v>
@@ -6000,7 +6000,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.508525203869783</v>
+        <v>1.457351621877715</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.389525076945431</v>
@@ -6089,7 +6089,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.517384135961932</v>
+        <v>1.4621813192682</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.372122241463277</v>
@@ -6178,7 +6178,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.538052907461978</v>
+        <v>1.479503555090834</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.360594276291397</v>
@@ -6267,7 +6267,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.540510298955388</v>
+        <v>1.483958066828353</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.135307652029897</v>
@@ -6356,7 +6356,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.593666494136426</v>
+        <v>1.52604583428682</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.111593731490411</v>
@@ -6445,7 +6445,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.596782328197338</v>
+        <v>1.526875625127904</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.065306968691214</v>
@@ -6534,7 +6534,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.612026214575645</v>
+        <v>1.539583859152776</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.93256937535021</v>
@@ -6623,7 +6623,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.615131601200122</v>
+        <v>1.533464339175235</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.049028349552823</v>
@@ -6712,7 +6712,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.623925653054611</v>
+        <v>1.538005995816659</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.183397283528455</v>
@@ -6801,7 +6801,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.620578923483935</v>
+        <v>1.532316267154177</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.15946688136744</v>
@@ -7087,7 +7087,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.689929139809109</v>
+        <v>1.713328528532544</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.140326071661302</v>
@@ -7176,7 +7176,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.699872333397244</v>
+        <v>1.722374154207619</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.620002109206079</v>
@@ -7265,7 +7265,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.72265298752676</v>
+        <v>1.742924277165982</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.308152088979335</v>
@@ -7354,7 +7354,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.755949981423105</v>
+        <v>1.770355991256759</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.606594131041497</v>
@@ -7443,7 +7443,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.734303486391482</v>
+        <v>1.747724802582527</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.231531560287108</v>
@@ -7532,7 +7532,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.724029725428922</v>
+        <v>1.735171688293662</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.3685971312132</v>
@@ -7621,7 +7621,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.720657236119782</v>
+        <v>1.726300695865909</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.0866877681227</v>
@@ -7710,7 +7710,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.717960724040181</v>
+        <v>1.726113323392008</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.04994645663896</v>
@@ -7799,7 +7799,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.698622452305293</v>
+        <v>1.710969443049716</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.445572780008527</v>
@@ -7888,7 +7888,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.692071768913498</v>
+        <v>1.707398139872061</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.102415060527367</v>
@@ -7977,7 +7977,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.673465211333526</v>
+        <v>1.687799809918366</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.922164602767167</v>
@@ -8066,7 +8066,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.632513421613977</v>
+        <v>1.620658965257082</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.169836767275614</v>
@@ -8155,7 +8155,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.609004092653487</v>
+        <v>1.590192204814078</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.103486569839165</v>
@@ -8244,7 +8244,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.619045697402738</v>
+        <v>1.600492523048018</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.205901108370469</v>
@@ -8333,7 +8333,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.60301094805755</v>
+        <v>1.579838240972029</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.246194655999628</v>
@@ -8422,7 +8422,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.590279986903338</v>
+        <v>1.567451951613109</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.227148154307597</v>
@@ -8511,7 +8511,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.600409410954096</v>
+        <v>1.57127209084272</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.235435298151354</v>
@@ -8600,7 +8600,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.586736973253247</v>
+        <v>1.557330344100606</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.213049440110809</v>
@@ -8689,7 +8689,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.582228816225377</v>
+        <v>1.553367518083877</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.16724499781808</v>
@@ -8778,7 +8778,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.579883501943173</v>
+        <v>1.55045059303405</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.183258185075024</v>
@@ -8867,7 +8867,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.581769132050708</v>
+        <v>1.54656475866766</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.23167187628414</v>
@@ -8956,7 +8956,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.557513130269498</v>
+        <v>1.529252442055397</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.251996029863677</v>
@@ -9045,7 +9045,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.560087532882464</v>
+        <v>1.531514822414269</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.267042346107133</v>
@@ -9134,7 +9134,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.561066037132602</v>
+        <v>1.531711663498441</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.228365907140718</v>
@@ -9223,7 +9223,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.572887421376087</v>
+        <v>1.543712238414064</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.24152867592431</v>
@@ -9312,7 +9312,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.586103244648376</v>
+        <v>1.55738688396719</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.22544457225761</v>
@@ -9401,7 +9401,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.627890699953106</v>
+        <v>1.617382627941228</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.574910018962593</v>
@@ -9490,7 +9490,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.679406271857288</v>
+        <v>1.67362104847639</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.061668649599367</v>
@@ -9579,7 +9579,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.694697417225993</v>
+        <v>1.686538726266321</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.943068780441361</v>
@@ -9668,7 +9668,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.717850518113824</v>
+        <v>1.705952903036722</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.751898386528527</v>
@@ -9757,7 +9757,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.730169608051237</v>
+        <v>1.724410489331167</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.1386447095972</v>
@@ -9846,7 +9846,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.733408377365267</v>
+        <v>1.734613123385307</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.805406124723342</v>
@@ -9935,7 +9935,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.74054133264352</v>
+        <v>1.739653343297323</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.202781167922221</v>
@@ -10024,7 +10024,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.761054869089383</v>
+        <v>1.761573523556604</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.155509385704784</v>
@@ -10113,7 +10113,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.780348678790121</v>
+        <v>1.782523265978574</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.038465455291348</v>
@@ -10202,7 +10202,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.783567298107436</v>
+        <v>1.78842586964361</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.795262188068723</v>
@@ -10291,7 +10291,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.82613188066216</v>
+        <v>1.828491263170038</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.415108132596167</v>
@@ -10380,7 +10380,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.848156489880972</v>
+        <v>1.848354951982532</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.684840706482278</v>
@@ -10469,7 +10469,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.859011725211832</v>
+        <v>1.856610408672899</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.784302439140371</v>
@@ -10558,7 +10558,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.85769590695855</v>
+        <v>1.851056074502733</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.453818641540798</v>
@@ -10647,7 +10647,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.861293509411687</v>
+        <v>1.852804539170055</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.482698027320559</v>
@@ -10736,7 +10736,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.843897621912667</v>
+        <v>1.837137711780586</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.462187311737333</v>
@@ -11022,7 +11022,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.799575534087868</v>
+        <v>1.800713367572211</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.52980117480574</v>
@@ -11111,7 +11111,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.798020071673885</v>
+        <v>1.796506195696558</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.785729128729344</v>
@@ -11200,7 +11200,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.804628267543027</v>
+        <v>1.801197494215076</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.304533818450923</v>
@@ -11289,7 +11289,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.83719367284539</v>
+        <v>1.830371998313987</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.279798468573929</v>
@@ -11378,7 +11378,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.819654995477108</v>
+        <v>1.811473882477635</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.512389884451547</v>
@@ -11467,7 +11467,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.814646627877178</v>
+        <v>1.7999694352938</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.547360348546281</v>
@@ -11556,7 +11556,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.806772916838276</v>
+        <v>1.793404932702671</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.660509488053068</v>
@@ -11645,7 +11645,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.809037937158577</v>
+        <v>1.800461755035437</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.508907456634533</v>
@@ -11734,7 +11734,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.793568900640564</v>
+        <v>1.778167324786277</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.246429559362673</v>
@@ -11823,7 +11823,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.779080411326697</v>
+        <v>1.762813071856941</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.649037624916278</v>
@@ -11912,7 +11912,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.769443749948105</v>
+        <v>1.756067385089565</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.36419291350494</v>
@@ -12001,7 +12001,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.720547811906487</v>
+        <v>1.689808918389291</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.391912682981574</v>
@@ -12090,7 +12090,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.694413418983059</v>
+        <v>1.664452909853953</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.442949888622157</v>
@@ -12179,7 +12179,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.699730957975054</v>
+        <v>1.665634998236411</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.429782880055122</v>
@@ -12268,7 +12268,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.684668567377976</v>
+        <v>1.649201632379263</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.46985797129427</v>
@@ -12357,7 +12357,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.674279672028842</v>
+        <v>1.636224023370733</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.423211087528308</v>
@@ -12446,7 +12446,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.682511585859339</v>
+        <v>1.644326291921283</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.442114199073428</v>
@@ -12535,7 +12535,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.669128244628429</v>
+        <v>1.631928008787703</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.435223885525881</v>
@@ -12624,7 +12624,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.661628668321593</v>
+        <v>1.627099420255936</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.45192999427002</v>
@@ -12713,7 +12713,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.664852743827303</v>
+        <v>1.633431503425647</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.463748482700698</v>
@@ -12802,7 +12802,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.668443249499249</v>
+        <v>1.631344727475186</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.475108534838475</v>
@@ -12891,7 +12891,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.647305933613955</v>
+        <v>1.616306634773482</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.500698731195031</v>
@@ -12980,7 +12980,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.642283588403817</v>
+        <v>1.610927358993436</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.522194247378686</v>
@@ -13069,7 +13069,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.644254295226392</v>
+        <v>1.615646245955684</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.43619065558974</v>
@@ -13158,7 +13158,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.656744699563848</v>
+        <v>1.628334006402012</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.496891003538957</v>
@@ -13247,7 +13247,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.660589256106419</v>
+        <v>1.635263745473907</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.493387955097121</v>
@@ -13336,7 +13336,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.705575030741501</v>
+        <v>1.696704211416733</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.650653917927836</v>
@@ -13425,7 +13425,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.746998303829313</v>
+        <v>1.737663011053587</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.010568163408119</v>
@@ -13514,7 +13514,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.750666539409647</v>
+        <v>1.739708739184248</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.999611326795013</v>
@@ -13603,7 +13603,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.772501446363146</v>
+        <v>1.760303974907514</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.986627603625243</v>
@@ -13692,7 +13692,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.779101528261887</v>
+        <v>1.774208511075216</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.352363582271778</v>
@@ -13781,7 +13781,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.783159218465968</v>
+        <v>1.776348170276322</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.192369464951171</v>
@@ -13870,7 +13870,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.787969846130806</v>
+        <v>1.780704671773012</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.924326164404864</v>
@@ -13959,7 +13959,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.795813732445631</v>
+        <v>1.785055070473926</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.258224471523936</v>
@@ -14048,7 +14048,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.803392891837144</v>
+        <v>1.792634586517043</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.240337684969762</v>
@@ -14137,7 +14137,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.814386218845023</v>
+        <v>1.802712214245753</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.826964992626523</v>
@@ -14226,7 +14226,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.848177252254048</v>
+        <v>1.838875201232196</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.523405624208727</v>
@@ -14315,7 +14315,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.868123290293169</v>
+        <v>1.861947118909264</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.915661223993843</v>
@@ -14404,7 +14404,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.872240059993912</v>
+        <v>1.863824577037483</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.871318839621119</v>
@@ -14493,7 +14493,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.876582208954336</v>
+        <v>1.864898841064234</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.256572491617897</v>
@@ -14582,7 +14582,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.876221247574988</v>
+        <v>1.862731849722428</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.157016534459279</v>
@@ -14671,7 +14671,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.860640884828274</v>
+        <v>1.849617279456687</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.038572169714926</v>
@@ -14957,7 +14957,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.727626511142181</v>
+        <v>1.69500479950822</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.548699601461596</v>
@@ -15046,7 +15046,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.710442747137283</v>
+        <v>1.675068711587576</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.523206096902168</v>
@@ -15135,7 +15135,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.719029739454</v>
+        <v>1.676100548272403</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.250688649916841</v>
@@ -15224,7 +15224,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.721549445222658</v>
+        <v>1.679482334280891</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.319048514166811</v>
@@ -15313,7 +15313,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.710193182874231</v>
+        <v>1.664172874079425</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.632346134914489</v>
@@ -15402,7 +15402,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.69622087206991</v>
+        <v>1.644698786198153</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.327550299110563</v>
@@ -15491,7 +15491,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.680003748767878</v>
+        <v>1.623690827835706</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.087101001678435</v>
@@ -15580,7 +15580,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.679355609034387</v>
+        <v>1.620674162076067</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.960445020565912</v>
@@ -15669,7 +15669,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.680676966081408</v>
+        <v>1.620762723120179</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.328700008579282</v>
@@ -15758,7 +15758,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.67061107695141</v>
+        <v>1.610208676441098</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.309395958222112</v>
@@ -15847,7 +15847,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.678177663501806</v>
+        <v>1.61112654276589</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.479746073120079</v>
@@ -15936,7 +15936,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.670957698071164</v>
+        <v>1.590957046003109</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.124570154010435</v>
@@ -16025,7 +16025,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.6655081206556</v>
+        <v>1.593511773864888</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.086190350381389</v>
@@ -16114,7 +16114,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.676855565902819</v>
+        <v>1.600402007165477</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.079617632704546</v>
@@ -16203,7 +16203,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.672492161154405</v>
+        <v>1.596673553708096</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.126218682602703</v>
@@ -16292,7 +16292,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.672178172826179</v>
+        <v>1.594937295569877</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.17166706558818</v>
@@ -16381,7 +16381,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.680070364931667</v>
+        <v>1.603810896861006</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.158369030388917</v>
@@ -16470,7 +16470,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.672850986059753</v>
+        <v>1.603167138258228</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.107266367943366</v>
@@ -16559,7 +16559,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.672186070615687</v>
+        <v>1.609534713267454</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.117310683208606</v>
@@ -16648,7 +16648,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.664857674206548</v>
+        <v>1.605236816431123</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.137331024882016</v>
@@ -16737,7 +16737,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.669557395600536</v>
+        <v>1.602551846529995</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.134542555643432</v>
@@ -16826,7 +16826,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.639778278126092</v>
+        <v>1.585532304393466</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.183466668545009</v>
@@ -16915,7 +16915,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.637987473823859</v>
+        <v>1.587915920665436</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.200902729223673</v>
@@ -17004,7 +17004,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.639271619752102</v>
+        <v>1.591861504723314</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.175841557037844</v>
@@ -17093,7 +17093,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.642393637497808</v>
+        <v>1.591770184920584</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.133626639020469</v>
@@ -17182,7 +17182,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.644327192204586</v>
+        <v>1.598024388160467</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.22025657418517</v>
@@ -17271,7 +17271,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.656733077007851</v>
+        <v>1.624188920088381</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.027280019194317</v>
@@ -17360,7 +17360,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.654292579876564</v>
+        <v>1.620185674258378</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.905119126310737</v>
@@ -17449,7 +17449,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.645842154762444</v>
+        <v>1.600843945552576</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.759895154532303</v>
@@ -17538,7 +17538,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.651789889039165</v>
+        <v>1.603955292821322</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.794583572145181</v>
@@ -17627,7 +17627,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.650977274611928</v>
+        <v>1.601471615245625</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.701749950267152</v>
@@ -17716,7 +17716,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.642401455341049</v>
+        <v>1.595034243442856</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.94191288632572</v>
@@ -17805,7 +17805,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.648709102887794</v>
+        <v>1.594349647922719</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.790639048548862</v>
@@ -17894,7 +17894,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.656251397873692</v>
+        <v>1.599519584260873</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.905141433374523</v>
@@ -17983,7 +17983,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.671516736564784</v>
+        <v>1.612445932160766</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.893845910236229</v>
@@ -18072,7 +18072,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.676142842742479</v>
+        <v>1.622874705371252</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.505939953064634</v>
@@ -18161,7 +18161,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.713999666055021</v>
+        <v>1.657010929115624</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.554967369357549</v>
@@ -18250,7 +18250,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.718496666232218</v>
+        <v>1.659967865698126</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.947764878907056</v>
@@ -18339,7 +18339,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.723985826371499</v>
+        <v>1.660915344348258</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.454380593552666</v>
@@ -18428,7 +18428,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.726460552367926</v>
+        <v>1.664601397140732</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.532303040840891</v>
@@ -18517,7 +18517,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.729938488919498</v>
+        <v>1.665570930300161</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.465284216087682</v>
@@ -18606,7 +18606,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.725120250184629</v>
+        <v>1.656953662190383</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.493919390016044</v>
@@ -18892,7 +18892,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.482610398037074</v>
+        <v>1.452953701036837</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.388276236412489</v>
@@ -18981,7 +18981,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.49942363225364</v>
+        <v>1.464422991777781</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.364451943761932</v>
@@ -19070,7 +19070,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.542824605432978</v>
+        <v>1.504554395394707</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.679870534817918</v>
@@ -19159,7 +19159,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.548565584736781</v>
+        <v>1.506985171478764</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.736497242256827</v>
@@ -19248,7 +19248,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.530930945706979</v>
+        <v>1.489335833687909</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.747776192445745</v>
@@ -19337,7 +19337,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.539848016833475</v>
+        <v>1.492441183719423</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.644070402131646</v>
@@ -19426,7 +19426,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.55886732338036</v>
+        <v>1.504761010201762</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.461882647839454</v>
@@ -19515,7 +19515,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.577133183417113</v>
+        <v>1.52541020252478</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.679773255376183</v>
@@ -19604,7 +19604,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.60574672732136</v>
+        <v>1.549151999976697</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.8282427505161</v>
@@ -19693,7 +19693,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.603654413352359</v>
+        <v>1.54321551373237</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.252075185147897</v>
@@ -19782,7 +19782,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.592624752072856</v>
+        <v>1.539113139273337</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.22491148240014</v>
@@ -19871,7 +19871,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.520275863245939</v>
+        <v>1.432944023214274</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.778188195452</v>
@@ -19960,7 +19960,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.473748361863005</v>
+        <v>1.392991540307202</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.807506936813436</v>
@@ -20049,7 +20049,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.468256877281763</v>
+        <v>1.391195937781055</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.820259854294413</v>
@@ -20138,7 +20138,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.461776634502191</v>
+        <v>1.385627711325834</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.849797962374611</v>
@@ -20227,7 +20227,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.463714262080194</v>
+        <v>1.384566980077593</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.858688961561673</v>
@@ -20316,7 +20316,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.473075743358823</v>
+        <v>1.391660496998355</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.860329024028571</v>
@@ -20405,7 +20405,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.467610800376699</v>
+        <v>1.382657426597768</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.857184257863052</v>
@@ -20494,7 +20494,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.469913761949643</v>
+        <v>1.38701901136845</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.857929975931629</v>
@@ -20583,7 +20583,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.455518183914503</v>
+        <v>1.377865479810984</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.888220726549421</v>
@@ -20672,7 +20672,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.451170417279797</v>
+        <v>1.370580430769376</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.904355114756042</v>
@@ -20761,7 +20761,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.426354224990941</v>
+        <v>1.352100382586884</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.925739445638864</v>
@@ -20850,7 +20850,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.41871741989208</v>
+        <v>1.345498275708761</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.917609614737283</v>
@@ -20939,7 +20939,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.417298564641119</v>
+        <v>1.345869641417875</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.923128379800358</v>
@@ -21028,7 +21028,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.424471827777868</v>
+        <v>1.351977174345593</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.914056604480249</v>
@@ -21117,7 +21117,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.424376625512007</v>
+        <v>1.35198508088286</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.938060273612585</v>
@@ -21206,7 +21206,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.444592118038339</v>
+        <v>1.39353870451347</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.998734094425708</v>
@@ -21295,7 +21295,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.480164151975377</v>
+        <v>1.427235329232168</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.325465427997192</v>
@@ -21384,7 +21384,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.482577329500969</v>
+        <v>1.429053348252708</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.218319293475548</v>
@@ -21473,7 +21473,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.495978116536631</v>
+        <v>1.438654587712948</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.173089799663628</v>
@@ -21562,7 +21562,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.494891572911812</v>
+        <v>1.444568656875051</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.180529671566282</v>
@@ -21651,7 +21651,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.487152355403409</v>
+        <v>1.443551881292304</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.226510317309811</v>
@@ -21740,7 +21740,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.486893071691003</v>
+        <v>1.447827060825779</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.148212100866419</v>
@@ -21829,7 +21829,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.495522333967943</v>
+        <v>1.453790845551146</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.168970791105923</v>
@@ -21918,7 +21918,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.524149012948151</v>
+        <v>1.479106988022058</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.20113275389892</v>
@@ -22007,7 +22007,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.515496489669387</v>
+        <v>1.478589240683937</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.946523512349042</v>
@@ -22096,7 +22096,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.563378876806839</v>
+        <v>1.527504937758433</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.821647276485684</v>
@@ -22185,7 +22185,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.573985821103322</v>
+        <v>1.536725978954857</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.812865426883599</v>
@@ -22274,7 +22274,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.585597065326164</v>
+        <v>1.54206781100477</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.713626132545826</v>
@@ -22363,7 +22363,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.592385776428642</v>
+        <v>1.544369527656088</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.692101025529154</v>
@@ -22452,7 +22452,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.597024892226079</v>
+        <v>1.542536548137152</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.713457500695679</v>
@@ -22541,7 +22541,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.599828934055249</v>
+        <v>1.546911585966837</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.794374669982655</v>
@@ -22827,7 +22827,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.724435506653586</v>
+        <v>1.752977157882313</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.171593066198923</v>
@@ -22916,7 +22916,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.714987087655694</v>
+        <v>1.744046002349736</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.320671525069713</v>
@@ -23005,7 +23005,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.721005580016163</v>
+        <v>1.749097119853532</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.993659000991574</v>
@@ -23094,7 +23094,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.762047357316005</v>
+        <v>1.783882005406744</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.239014741643458</v>
@@ -23183,7 +23183,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.733173820798096</v>
+        <v>1.757174323024719</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.891090966226142</v>
@@ -23272,7 +23272,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.721566395187884</v>
+        <v>1.744639890635139</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.373912584592192</v>
@@ -23361,7 +23361,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.727420027672675</v>
+        <v>1.750876155567759</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.298431845561876</v>
@@ -23450,7 +23450,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.728544564549542</v>
+        <v>1.756202630106853</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.159854242803521</v>
@@ -23539,7 +23539,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.714302488329211</v>
+        <v>1.742603862594646</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.1508421355173</v>
@@ -23628,7 +23628,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.689015049573121</v>
+        <v>1.72215173274633</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.851776535226974</v>
@@ -23717,7 +23717,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.67589135637266</v>
+        <v>1.709330994148306</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.841216664854038</v>
@@ -23806,7 +23806,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.668934755458133</v>
+        <v>1.673269839242875</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.391711066769308</v>
@@ -23895,7 +23895,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.640350998529987</v>
+        <v>1.643363299074426</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.419166409761015</v>
@@ -23984,7 +23984,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.639852998918545</v>
+        <v>1.640682253159166</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.411541621922651</v>
@@ -24073,7 +24073,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.629889499677279</v>
+        <v>1.628089159526498</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.366034828328338</v>
@@ -24162,7 +24162,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.621165359867443</v>
+        <v>1.618959922544395</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.327370459089658</v>
@@ -24251,7 +24251,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.636534552524543</v>
+        <v>1.635442184351935</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.420221743635762</v>
@@ -24340,7 +24340,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.618273975740834</v>
+        <v>1.619566299278745</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.406868952533368</v>
@@ -24429,7 +24429,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.62004497260638</v>
+        <v>1.624678974437646</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.28732940759193</v>
@@ -24518,7 +24518,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.623843223002307</v>
+        <v>1.625908139729564</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.366048043870856</v>
@@ -24607,7 +24607,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.626170048512054</v>
+        <v>1.617557719946366</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.411199544677588</v>
@@ -24696,7 +24696,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.598667809500105</v>
+        <v>1.594114576205915</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.418894484467892</v>
@@ -24785,7 +24785,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.595549914931044</v>
+        <v>1.58786747006596</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.376595973769207</v>
@@ -24874,7 +24874,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.589786798676905</v>
+        <v>1.585701409558698</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.340840333522806</v>
@@ -24963,7 +24963,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.610879112449096</v>
+        <v>1.606042678659819</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.411747352112191</v>
@@ -25052,7 +25052,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.626154114715893</v>
+        <v>1.623167137747525</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.394521028645971</v>
@@ -25141,7 +25141,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.655972492850739</v>
+        <v>1.677961507992634</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.518565130547139</v>
@@ -25230,7 +25230,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.708282306890946</v>
+        <v>1.729719341913412</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.223701522333416</v>
@@ -25319,7 +25319,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.725355308220878</v>
+        <v>1.746225063763342</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.211409895896628</v>
@@ -25408,7 +25408,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.740547679699582</v>
+        <v>1.759764884701995</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.960403484825037</v>
@@ -25497,7 +25497,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.741870284460459</v>
+        <v>1.767558931510785</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.041755686587077</v>
@@ -25586,7 +25586,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.742924368754068</v>
+        <v>1.771922728854387</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.07720604711626</v>
@@ -25675,7 +25675,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.740552922551843</v>
+        <v>1.769584720315892</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.019494368337416</v>
@@ -25764,7 +25764,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.74636088986203</v>
+        <v>1.779858262481117</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.297867052768677</v>
@@ -25853,7 +25853,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.749949632468473</v>
+        <v>1.784799163106137</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.232840181406699</v>
@@ -25942,7 +25942,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.754388789650736</v>
+        <v>1.79751607646</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.176304028055081</v>
@@ -26031,7 +26031,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.790723478974587</v>
+        <v>1.838568699688987</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.882462584731295</v>
@@ -26120,7 +26120,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.818521281038647</v>
+        <v>1.864558394716823</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.997084443472686</v>
@@ -26209,7 +26209,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.825214833763874</v>
+        <v>1.86814700750167</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.318600382265592</v>
@@ -26298,7 +26298,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.819330488498836</v>
+        <v>1.858561385083494</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.171040953493262</v>
@@ -26387,7 +26387,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.817531636054023</v>
+        <v>1.857573016836325</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.380557674197479</v>
@@ -26476,7 +26476,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.788892937826628</v>
+        <v>1.829238140632542</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.075290754984026</v>
